--- a/tut05/output/0401ME33.xlsx
+++ b/tut05/output/0401ME33.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.448979591836735</v>
+        <v>7.45</v>
       </c>
       <c r="C6" t="n">
-        <v>7.954545454545454</v>
+        <v>7.95</v>
       </c>
       <c r="D6" t="n">
-        <v>8.851063829787234</v>
+        <v>8.85</v>
       </c>
       <c r="E6" t="n">
-        <v>8.591836734693878</v>
+        <v>8.59</v>
       </c>
       <c r="F6" t="n">
-        <v>8.782608695652174</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>8.217391304347826</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>9.699999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.448979591836735</v>
+        <v>7.45</v>
       </c>
       <c r="C8" t="n">
-        <v>7.688172043010753</v>
+        <v>7.69</v>
       </c>
       <c r="D8" t="n">
-        <v>8.078571428571429</v>
+        <v>8.08</v>
       </c>
       <c r="E8" t="n">
-        <v>8.211640211640212</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8.323404255319149</v>
+        <v>8.32</v>
       </c>
       <c r="G8" t="n">
-        <v>8.306049822064058</v>
+        <v>8.31</v>
       </c>
       <c r="H8" t="n">
-        <v>8.4797507788162</v>
+        <v>8.48</v>
       </c>
       <c r="I8" t="n">
-        <v>8.531855955678671</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
   </sheetData>
